--- a/Configs/GameConfig/Datas/Projectile.xlsx
+++ b/Configs/GameConfig/Datas/Projectile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28800" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>l</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0">
@@ -41,12 +42,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>伤害来源类型:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.物理攻击
+2.魔法攻击
+3.物理和魔法混合伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>伤害类型:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.伤害
+2.治疗</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -78,6 +126,15 @@
     <t>Gravity</t>
   </si>
   <si>
+    <t>DamageSource</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>DamageInternal</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -124,6 +181,15 @@
   </si>
   <si>
     <t>重力</t>
+  </si>
+  <si>
+    <t>伤害来源</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
+    <t>伤害间隔(ms)</t>
   </si>
   <si>
     <t>直线子弹</t>
@@ -137,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -151,47 +217,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,45 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,15 +310,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,28 +356,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +381,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,25 +483,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,25 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,97 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,21 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,6 +586,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,27 +624,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +661,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1092,9 +1158,10 @@
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="8" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1125,109 +1192,145 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1238,16 +1341,25 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1257,6 +1369,15 @@
       </c>
       <c r="J6">
         <v>9.8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
